--- a/src/main/resources/colleaguesOUT.xlsx
+++ b/src/main/resources/colleaguesOUT.xlsx
@@ -20,7 +20,7 @@
     <t>Jorgson</t>
   </si>
   <si>
-    <t>4-01-1989</t>
+    <t>04-01-1989</t>
   </si>
   <si>
     <t>Jimmy</t>
@@ -29,7 +29,7 @@
     <t>Smiles</t>
   </si>
   <si>
-    <t>5-02-1990</t>
+    <t>05-02-1990</t>
   </si>
   <si>
     <t>Piotr</t>
@@ -38,7 +38,7 @@
     <t>Smitzer</t>
   </si>
   <si>
-    <t>6-02-1991</t>
+    <t>06-02-1991</t>
   </si>
   <si>
     <t>Bejan</t>
@@ -47,7 +47,7 @@
     <t>Elena</t>
   </si>
   <si>
-    <t>7-04-1993</t>
+    <t>07-04-1993</t>
   </si>
   <si>
     <t>Ivan</t>
@@ -56,7 +56,7 @@
     <t>Petrov</t>
   </si>
   <si>
-    <t>8-05-1996</t>
+    <t>08-05-1996</t>
   </si>
   <si>
     <t>Serghei</t>
@@ -65,13 +65,13 @@
     <t>Mishurov</t>
   </si>
   <si>
-    <t>9-06-1998</t>
+    <t>09-06-1998</t>
   </si>
   <si>
     <t>Ivanisev</t>
   </si>
   <si>
-    <t>10-07-1999</t>
+    <t>010-07-1999</t>
   </si>
   <si>
     <t>Habib</t>
@@ -104,7 +104,7 @@
     <t>Samurai</t>
   </si>
   <si>
-    <t>8-10-1995</t>
+    <t>08-10-1995</t>
   </si>
   <si>
     <t>James</t>
@@ -113,7 +113,7 @@
     <t>Bond</t>
   </si>
   <si>
-    <t>9-10-1989</t>
+    <t>09-10-1989</t>
   </si>
   <si>
     <t>Jared</t>
@@ -140,7 +140,7 @@
     <t>Ackles</t>
   </si>
   <si>
-    <t>1-03-1978</t>
+    <t>01-03-1978</t>
   </si>
   <si>
     <t>Misha</t>
@@ -158,7 +158,7 @@
     <t>Pellegrino</t>
   </si>
   <si>
-    <t>9-04-1965</t>
+    <t>09-04-1965</t>
   </si>
   <si>
     <t>Sheppard</t>
@@ -173,7 +173,7 @@
     <t>Smith</t>
   </si>
   <si>
-    <t>4-11-1969</t>
+    <t>04-11-1969</t>
   </si>
 </sst>
 </file>

--- a/src/main/resources/colleaguesOUT.xlsx
+++ b/src/main/resources/colleaguesOUT.xlsx
@@ -98,7 +98,7 @@
     <t>23-12-2020</t>
   </si>
   <si>
-    <t>Jack</t>
+    <t>AJack</t>
   </si>
   <si>
     <t>Samurai</t>
